--- a/data/577 Projects/2013-2014/project_effort.xlsx
+++ b/data/577 Projects/2013-2014/project_effort.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/577 Projects/2013-2014/project_effort.xlsx
+++ b/data/577 Projects/2013-2014/project_effort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,16 +415,16 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="71.5703125" customWidth="1"/>
+    <col min="2" max="2" width="71.5546875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -446,7 +446,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -457,7 +457,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -468,7 +468,7 @@
         <v>1506.32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -479,7 +479,7 @@
         <v>8224.7199999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -490,7 +490,7 @@
         <v>1741.92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -501,7 +501,7 @@
         <v>1092.8800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -512,7 +512,7 @@
         <v>384.56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -523,7 +523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -534,7 +534,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -545,7 +545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -567,7 +567,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -578,7 +578,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -589,7 +589,7 @@
         <v>1810.32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -600,7 +600,7 @@
         <v>1393.84</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
